--- a/Migration.xlsx
+++ b/Migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>AnB_Test</t>
   </si>
@@ -88,6 +88,63 @@
   </si>
   <si>
     <t>not 'closed'</t>
+  </si>
+  <si>
+    <t>SLAnalysisPeriod</t>
+  </si>
+  <si>
+    <t>SLCustomerLocation</t>
+  </si>
+  <si>
+    <t>SYSFinancialYear</t>
+  </si>
+  <si>
+    <t>SYSCountryCodeID</t>
+  </si>
+  <si>
+    <t>could be PostalName</t>
+  </si>
+  <si>
+    <t>AnB_Live</t>
+  </si>
+  <si>
+    <t>Actual Column Name</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>same as CustDeliveryAddress.CustomerID</t>
+  </si>
+  <si>
+    <t>same as CustDeliveryAddress.CountryCodeID</t>
+  </si>
+  <si>
+    <t>account uni id in sage</t>
+  </si>
+  <si>
+    <t>could be Company Name</t>
+  </si>
+  <si>
+    <t>TEMPORARY TABLE</t>
+  </si>
+  <si>
+    <t>CustDeliveryAddressSLCustomerAccount</t>
+  </si>
+  <si>
+    <t>SLCustomerAccountSLCustomerLocation</t>
+  </si>
+  <si>
+    <t>MERGED TABLE</t>
+  </si>
+  <si>
+    <t>DeliveryAddresses</t>
   </si>
 </sst>
 </file>
@@ -504,109 +561,423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
